--- a/Cleverest/Cleverest.Web/Content/Files/Import/ScoreImport/7b57a7cb-2aae-4a07-9dd0-f608116af9e5.xlsx
+++ b/Cleverest/Cleverest.Web/Content/Files/Import/ScoreImport/7b57a7cb-2aae-4a07-9dd0-f608116af9e5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lex\Desktop\CleverRest Житомир-20161124T150443Z\CleverRest Житомир\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o.kotvytskyi\Desktop\1\Cleverest\Cleverest\Cleverest.Web\Content\Files\Import\ScoreImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11220" windowHeight="5520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -312,7 +312,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -362,9 +362,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -402,7 +402,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -474,7 +474,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -627,7 +627,7 @@
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -697,20 +697,34 @@
       <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F38" si="0">SUM(C2,D2,E2)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+        <f t="shared" ref="F2:F16" si="0">SUM(C2,D2,E2)</f>
+        <v>6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2">
+        <v>7</v>
+      </c>
       <c r="K2" s="5">
-        <f t="shared" ref="K2:K38" si="1">SUM(F2,G2,H2,I2,J2)</f>
-        <v>0</v>
+        <f t="shared" ref="K2:K16" si="1">SUM(F2,G2,H2,I2,J2)</f>
+        <v>28</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="1"/>
@@ -728,20 +742,34 @@
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2">
+        <v>7</v>
+      </c>
       <c r="K3" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="1"/>
@@ -759,20 +787,34 @@
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2">
+        <v>7</v>
+      </c>
       <c r="K4" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="1"/>
@@ -790,20 +832,34 @@
       <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>6</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7</v>
+      </c>
       <c r="K5" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="1"/>
@@ -821,20 +877,34 @@
       <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="2">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
       <c r="K6" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="1"/>
@@ -852,20 +922,34 @@
       <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>2</v>
+      </c>
       <c r="K7" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="1"/>
@@ -883,20 +967,34 @@
       <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
       <c r="K8" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="1"/>
@@ -914,20 +1012,34 @@
       <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2</v>
+      </c>
       <c r="K9" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="1"/>
@@ -945,20 +1057,34 @@
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
       <c r="K10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="1"/>
@@ -1621,7 +1747,7 @@
       <c r="N42" s="16"/>
       <c r="O42" s="11"/>
     </row>
-    <row r="43" spans="1:15" ht="27.75">
+    <row r="43" spans="1:15" ht="27">
       <c r="A43" s="11"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -1638,7 +1764,7 @@
       <c r="N43" s="16"/>
       <c r="O43" s="11"/>
     </row>
-    <row r="44" spans="1:15" ht="27.75">
+    <row r="44" spans="1:15" ht="27">
       <c r="A44" s="11"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -1655,7 +1781,7 @@
       <c r="N44" s="16"/>
       <c r="O44" s="11"/>
     </row>
-    <row r="45" spans="1:15" ht="27.75">
+    <row r="45" spans="1:15" ht="27">
       <c r="A45" s="11"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -1672,7 +1798,7 @@
       <c r="N45" s="16"/>
       <c r="O45" s="11"/>
     </row>
-    <row r="46" spans="1:15" ht="27.75">
+    <row r="46" spans="1:15" ht="27">
       <c r="A46" s="11"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -1689,7 +1815,7 @@
       <c r="N46" s="16"/>
       <c r="O46" s="11"/>
     </row>
-    <row r="47" spans="1:15" ht="27.75">
+    <row r="47" spans="1:15" ht="27">
       <c r="A47" s="11"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -1706,7 +1832,7 @@
       <c r="N47" s="16"/>
       <c r="O47" s="11"/>
     </row>
-    <row r="48" spans="1:15" ht="27.75">
+    <row r="48" spans="1:15" ht="27">
       <c r="A48" s="11"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -1723,7 +1849,7 @@
       <c r="N48" s="16"/>
       <c r="O48" s="11"/>
     </row>
-    <row r="49" spans="1:15" ht="27.75">
+    <row r="49" spans="1:15" ht="27">
       <c r="A49" s="11"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -1740,7 +1866,7 @@
       <c r="N49" s="16"/>
       <c r="O49" s="11"/>
     </row>
-    <row r="50" spans="1:15" ht="27.75">
+    <row r="50" spans="1:15" ht="27">
       <c r="A50" s="11"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -1757,7 +1883,7 @@
       <c r="N50" s="16"/>
       <c r="O50" s="11"/>
     </row>
-    <row r="51" spans="1:15" ht="27.75">
+    <row r="51" spans="1:15" ht="27">
       <c r="A51" s="11"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -1774,7 +1900,7 @@
       <c r="N51" s="16"/>
       <c r="O51" s="11"/>
     </row>
-    <row r="52" spans="1:15" ht="27.75">
+    <row r="52" spans="1:15" ht="27">
       <c r="A52" s="11"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -1791,7 +1917,7 @@
       <c r="N52" s="16"/>
       <c r="O52" s="11"/>
     </row>
-    <row r="53" spans="1:15" ht="27.75">
+    <row r="53" spans="1:15" ht="27">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="16"/>
@@ -1808,7 +1934,7 @@
       <c r="N53" s="16"/>
       <c r="O53" s="11"/>
     </row>
-    <row r="54" spans="1:15" ht="27.75">
+    <row r="54" spans="1:15" ht="27">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="16"/>
@@ -1825,7 +1951,7 @@
       <c r="N54" s="16"/>
       <c r="O54" s="11"/>
     </row>
-    <row r="55" spans="1:15" ht="27.75">
+    <row r="55" spans="1:15" ht="27">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="16"/>
@@ -1842,7 +1968,7 @@
       <c r="N55" s="16"/>
       <c r="O55" s="11"/>
     </row>
-    <row r="56" spans="1:15" ht="27.75">
+    <row r="56" spans="1:15" ht="27">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="16"/>
@@ -1859,7 +1985,7 @@
       <c r="N56" s="16"/>
       <c r="O56" s="11"/>
     </row>
-    <row r="57" spans="1:15" ht="27.75">
+    <row r="57" spans="1:15" ht="27">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="16"/>
@@ -1876,7 +2002,7 @@
       <c r="N57" s="16"/>
       <c r="O57" s="11"/>
     </row>
-    <row r="58" spans="1:15" ht="27.75">
+    <row r="58" spans="1:15" ht="27">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="16"/>
@@ -1893,7 +2019,7 @@
       <c r="N58" s="16"/>
       <c r="O58" s="11"/>
     </row>
-    <row r="59" spans="1:15" ht="27.75">
+    <row r="59" spans="1:15" ht="27">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="16"/>
@@ -1910,7 +2036,7 @@
       <c r="N59" s="16"/>
       <c r="O59" s="11"/>
     </row>
-    <row r="60" spans="1:15" ht="27.75">
+    <row r="60" spans="1:15" ht="27">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="16"/>
@@ -1927,7 +2053,7 @@
       <c r="N60" s="16"/>
       <c r="O60" s="11"/>
     </row>
-    <row r="61" spans="1:15" ht="27.75">
+    <row r="61" spans="1:15" ht="27">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="16"/>
@@ -1944,7 +2070,7 @@
       <c r="N61" s="16"/>
       <c r="O61" s="11"/>
     </row>
-    <row r="62" spans="1:15" ht="27.75">
+    <row r="62" spans="1:15" ht="27">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="16"/>
@@ -1961,7 +2087,7 @@
       <c r="N62" s="16"/>
       <c r="O62" s="11"/>
     </row>
-    <row r="63" spans="1:15" ht="27.75">
+    <row r="63" spans="1:15" ht="27">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="16"/>
@@ -1978,7 +2104,7 @@
       <c r="N63" s="16"/>
       <c r="O63" s="16"/>
     </row>
-    <row r="64" spans="1:15" ht="27.75">
+    <row r="64" spans="1:15" ht="27">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="16"/>
@@ -1995,7 +2121,7 @@
       <c r="N64" s="16"/>
       <c r="O64" s="16"/>
     </row>
-    <row r="65" spans="1:15" ht="27.75">
+    <row r="65" spans="1:15" ht="27">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="16"/>
@@ -2012,7 +2138,7 @@
       <c r="N65" s="16"/>
       <c r="O65" s="16"/>
     </row>
-    <row r="66" spans="1:15" ht="27.75">
+    <row r="66" spans="1:15" ht="27">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="16"/>
@@ -2029,7 +2155,7 @@
       <c r="N66" s="16"/>
       <c r="O66" s="16"/>
     </row>
-    <row r="67" spans="1:15" ht="27.75">
+    <row r="67" spans="1:15" ht="27">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="16"/>
@@ -2063,7 +2189,7 @@
       <c r="N68" s="16"/>
       <c r="O68" s="16"/>
     </row>
-    <row r="69" spans="1:15" ht="27.75">
+    <row r="69" spans="1:15" ht="27">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="16"/>
@@ -2080,7 +2206,7 @@
       <c r="N69" s="16"/>
       <c r="O69" s="16"/>
     </row>
-    <row r="70" spans="1:15" ht="27.75">
+    <row r="70" spans="1:15" ht="27">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="16"/>
@@ -2097,7 +2223,7 @@
       <c r="N70" s="16"/>
       <c r="O70" s="16"/>
     </row>
-    <row r="71" spans="1:15" ht="27.75">
+    <row r="71" spans="1:15" ht="27">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="16"/>
@@ -2114,7 +2240,7 @@
       <c r="N71" s="16"/>
       <c r="O71" s="16"/>
     </row>
-    <row r="72" spans="1:15" ht="27.75">
+    <row r="72" spans="1:15" ht="27">
       <c r="A72" s="14"/>
       <c r="B72" s="11"/>
       <c r="C72" s="16"/>
@@ -2131,7 +2257,7 @@
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
     </row>
-    <row r="73" spans="1:15" ht="27.75">
+    <row r="73" spans="1:15" ht="27">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="16"/>
@@ -2148,7 +2274,7 @@
       <c r="N73" s="16"/>
       <c r="O73" s="16"/>
     </row>
-    <row r="74" spans="1:15" ht="27.75">
+    <row r="74" spans="1:15" ht="27">
       <c r="A74" s="14"/>
       <c r="B74" s="11"/>
       <c r="C74" s="16"/>
@@ -2165,7 +2291,7 @@
       <c r="N74" s="16"/>
       <c r="O74" s="16"/>
     </row>
-    <row r="75" spans="1:15" ht="27.75">
+    <row r="75" spans="1:15" ht="27">
       <c r="A75" s="14"/>
       <c r="B75" s="11"/>
       <c r="C75" s="16"/>
@@ -2182,7 +2308,7 @@
       <c r="N75" s="16"/>
       <c r="O75" s="16"/>
     </row>
-    <row r="76" spans="1:15" ht="27.75">
+    <row r="76" spans="1:15" ht="27">
       <c r="A76" s="14"/>
       <c r="B76" s="11"/>
       <c r="C76" s="16"/>
@@ -2199,7 +2325,7 @@
       <c r="N76" s="16"/>
       <c r="O76" s="16"/>
     </row>
-    <row r="77" spans="1:15" ht="27.75">
+    <row r="77" spans="1:15" ht="27">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="16"/>
@@ -2233,7 +2359,7 @@
       <c r="N78" s="16"/>
       <c r="O78" s="16"/>
     </row>
-    <row r="79" spans="1:15" ht="27.75">
+    <row r="79" spans="1:15" ht="27">
       <c r="A79" s="19"/>
       <c r="B79" s="11"/>
       <c r="C79" s="16"/>
@@ -2250,7 +2376,7 @@
       <c r="N79" s="16"/>
       <c r="O79" s="16"/>
     </row>
-    <row r="80" spans="1:15" ht="27.75">
+    <row r="80" spans="1:15" ht="27">
       <c r="A80" s="16"/>
       <c r="B80" s="11"/>
       <c r="C80" s="16"/>
@@ -2267,7 +2393,7 @@
       <c r="N80" s="16"/>
       <c r="O80" s="16"/>
     </row>
-    <row r="81" spans="1:15" ht="27.75">
+    <row r="81" spans="1:15" ht="27">
       <c r="A81" s="16"/>
       <c r="B81" s="11"/>
       <c r="C81" s="16"/>
@@ -2284,7 +2410,7 @@
       <c r="N81" s="16"/>
       <c r="O81" s="16"/>
     </row>
-    <row r="82" spans="1:15" ht="27.75">
+    <row r="82" spans="1:15" ht="27">
       <c r="A82" s="16"/>
       <c r="B82" s="14"/>
       <c r="C82" s="16"/>
@@ -2301,7 +2427,7 @@
       <c r="N82" s="16"/>
       <c r="O82" s="16"/>
     </row>
-    <row r="83" spans="1:15" ht="27.75">
+    <row r="83" spans="1:15" ht="27">
       <c r="A83" s="16"/>
       <c r="B83" s="11"/>
       <c r="C83" s="16"/>
@@ -2318,7 +2444,7 @@
       <c r="N83" s="16"/>
       <c r="O83" s="16"/>
     </row>
-    <row r="84" spans="1:15" ht="27.75">
+    <row r="84" spans="1:15" ht="27">
       <c r="A84" s="16"/>
       <c r="B84" s="14"/>
       <c r="C84" s="16"/>
@@ -2335,7 +2461,7 @@
       <c r="N84" s="16"/>
       <c r="O84" s="16"/>
     </row>
-    <row r="85" spans="1:15" ht="27.75">
+    <row r="85" spans="1:15" ht="27">
       <c r="A85" s="16"/>
       <c r="B85" s="14"/>
       <c r="C85" s="16"/>
@@ -2352,7 +2478,7 @@
       <c r="N85" s="16"/>
       <c r="O85" s="16"/>
     </row>
-    <row r="86" spans="1:15" ht="27.75">
+    <row r="86" spans="1:15" ht="27">
       <c r="A86" s="16"/>
       <c r="B86" s="14"/>
       <c r="C86" s="16"/>
@@ -2369,7 +2495,7 @@
       <c r="N86" s="16"/>
       <c r="O86" s="16"/>
     </row>
-    <row r="87" spans="1:15" ht="27.75">
+    <row r="87" spans="1:15" ht="27">
       <c r="A87" s="16"/>
       <c r="B87" s="11"/>
       <c r="C87" s="16"/>
@@ -2386,7 +2512,7 @@
       <c r="N87" s="16"/>
       <c r="O87" s="16"/>
     </row>
-    <row r="88" spans="1:15" ht="27.75">
+    <row r="88" spans="1:15" ht="27">
       <c r="A88" s="16"/>
       <c r="B88" s="11"/>
       <c r="C88" s="16"/>
@@ -2403,7 +2529,7 @@
       <c r="N88" s="16"/>
       <c r="O88" s="16"/>
     </row>
-    <row r="89" spans="1:15" ht="27.75">
+    <row r="89" spans="1:15" ht="27">
       <c r="A89" s="16"/>
       <c r="B89" s="19"/>
       <c r="C89" s="16"/>
